--- a/data/trans_camb/P62-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P62-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P62-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P62-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,9</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,11; -0,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,33; -2,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,77; 18,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,76; 17,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,78; 10,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,83; 28,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,06; 5,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,54; 1,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 20,81</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,6%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,13; -2,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,53; -4,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,19; 34,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,43; 82,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,04; 55,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,34; 140,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,82; 14,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,02; 5,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 60,58</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,58; 4,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,55; -1,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 16,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 13,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 13,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,54; 22,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 10,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 7,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,94; 20,16</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,3%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,12; 8,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,24; -2,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,3; 32,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,69; 64,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,02; 68,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,76; 114,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 32,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,42; 22,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,14; 61,93</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,24; -8,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,5; -5,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,71; 5,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 10,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 9,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,33; 16,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 3,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 3,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,3; 11,2</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,12%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,97; -15,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,38; -11,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,14; 9,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,96; 53,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 49,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,12; 89,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; 10,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,99; 11,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,05; 34,45</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,55</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,7; -11,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,84; -3,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 12,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 6,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 7,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,59; 47,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,54; -1,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 3,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,12; 31,28</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,63%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,89; -21,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,39; -5,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; 23,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,77; 30,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,69; 32,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,73; 209,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,12; -3,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,67; 8,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,77; 90,82</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,96</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,49; 4,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,7; 7,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,11; 9,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 7,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,0; 13,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,07; 16,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 6,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,51; 10,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,81; 13,25</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,27%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,21%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,28; 9,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,96; 16,8</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,64; 20,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; 31,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,64; 55,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,91; 69,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 18,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,62; 31,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,67; 39,38</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,39</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,98; -7,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,52; -4,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 5,86</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 6,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,85; 8,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,0; 25,65</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 2,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 3,74</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,78; 16,34</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,32%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,04%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,17%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,99%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,68; -13,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,6; -9,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 11,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,35; 29,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,08; 35,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,42; 105,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; 6,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 10,69</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,33; 45,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P62-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P62-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-19,09</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-20,5</t>
+          <t>-11,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,43</t>
+          <t>17,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>13,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,11; -0,98</t>
+          <t>-14,07; 0,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-37,33; -2,37</t>
+          <t>-19,12; -3,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 18,12</t>
+          <t>-5,29; 12,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 17,01</t>
+          <t>2,02; 13,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 10,7</t>
+          <t>0,62; 11,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,83; 28,33</t>
+          <t>11,95; 22,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 5,06</t>
+          <t>-0,6; 8,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 1,53</t>
+          <t>-3,85; 5,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 20,81</t>
+          <t>8,43; 17,98</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-30,92%</t>
+          <t>-11,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-33,2%</t>
+          <t>-20,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,42%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>71,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,12%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,11%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>37,23%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,13; -2,03</t>
+          <t>-23,83; 1,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,53; -4,46</t>
+          <t>-31,53; -7,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 34,63</t>
+          <t>-8,93; 24,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 82,84</t>
+          <t>8,25; 63,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 55,27</t>
+          <t>2,04; 53,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,34; 140,31</t>
+          <t>44,41; 106,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 14,55</t>
+          <t>-1,76; 26,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,02; 5,25</t>
+          <t>-9,99; 15,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 60,58</t>
+          <t>22,62; 53,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-15,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,59</t>
+          <t>-12,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,21</t>
+          <t>11,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,02</t>
+          <t>6,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 4,09</t>
+          <t>-21,24; -8,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,55; -1,39</t>
+          <t>-18,5; -5,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 16,28</t>
+          <t>-11,81; 3,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 13,93</t>
+          <t>1,14; 10,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 13,94</t>
+          <t>-0,04; 9,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 22,81</t>
+          <t>7,19; 16,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 10,5</t>
+          <t>-4,53; 3,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 7,55</t>
+          <t>-4,04; 3,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,94; 20,16</t>
+          <t>2,51; 10,6</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,66%</t>
+          <t>-27,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,52%</t>
+          <t>-21,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>-7,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,24%</t>
+          <t>53,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>19,31%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 8,12</t>
+          <t>-35,97; -15,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,24; -2,8</t>
+          <t>-31,38; -11,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 32,4</t>
+          <t>-19,71; 6,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 64,94</t>
+          <t>4,96; 53,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 68,18</t>
+          <t>-0,25; 49,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,76; 114,86</t>
+          <t>29,56; 88,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 32,79</t>
+          <t>-12,55; 10,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 22,96</t>
+          <t>-10,99; 11,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,14; 61,93</t>
+          <t>7,07; 32,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-15,32</t>
+          <t>-18,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>31,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>20,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,24; -8,06</t>
+          <t>-26,7; -11,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,5; -5,75</t>
+          <t>-18,84; -3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 5,21</t>
+          <t>-8,53; 10,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 10,29</t>
+          <t>-4,76; 6,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 9,6</t>
+          <t>-4,07; 7,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 16,93</t>
+          <t>8,17; 57,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,39</t>
+          <t>-10,54; -1,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 3,73</t>
+          <t>-6,23; 3,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 11,2</t>
+          <t>7,01; 39,44</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-27,25%</t>
+          <t>-32,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,8%</t>
+          <t>-18,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>53,78%</t>
+          <t>122,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-14,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>-4,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>54,27%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,97; -15,84</t>
+          <t>-42,89; -21,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,38; -11,33</t>
+          <t>-30,39; -5,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 9,98</t>
+          <t>-13,88; 18,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,96; 53,25</t>
+          <t>-16,77; 30,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 49,14</t>
+          <t>-14,69; 32,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 89,11</t>
+          <t>30,07; 265,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 10,28</t>
+          <t>-26,12; -3,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 11,33</t>
+          <t>-15,67; 8,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,05; 34,45</t>
+          <t>18,29; 113,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-18,58</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,92</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,55</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,37</t>
+          <t>8,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-26,7; -11,39</t>
+          <t>-8,49; 4,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,84; -3,03</t>
+          <t>-5,7; 7,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 12,37</t>
+          <t>-7,57; 7,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 6,88</t>
+          <t>-2,15; 7,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 7,36</t>
+          <t>3,0; 13,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,59; 47,21</t>
+          <t>6,63; 16,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,54; -1,18</t>
+          <t>-2,2; 6,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 3,07</t>
+          <t>2,51; 10,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,12; 31,28</t>
+          <t>3,89; 12,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,25%</t>
+          <t>-4,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-18,95%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-14,88%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,63%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>22,51%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,89; -21,0</t>
+          <t>-16,28; 9,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,39; -5,41</t>
+          <t>-10,96; 16,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 23,03</t>
+          <t>-14,34; 17,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 30,6</t>
+          <t>-7,09; 31,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 32,33</t>
+          <t>9,64; 55,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,73; 209,51</t>
+          <t>22,95; 68,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,12; -3,2</t>
+          <t>-5,85; 18,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 8,61</t>
+          <t>6,62; 31,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,77; 90,82</t>
+          <t>10,31; 36,46</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>18,66</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>12,07</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 4,57</t>
+          <t>-13,98; -7,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 7,47</t>
+          <t>-11,52; -4,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 9,45</t>
+          <t>-4,53; 3,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,81</t>
+          <t>1,65; 6,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,0; 13,46</t>
+          <t>2,85; 8,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,07; 16,93</t>
+          <t>11,8; 34,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 6,13</t>
+          <t>-2,15; 2,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 10,54</t>
+          <t>-0,38; 3,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,81; 13,25</t>
+          <t>8,17; 22,7</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-19,32%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>-15,04%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>75,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>33,88%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 9,94</t>
+          <t>-24,68; -13,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 16,8</t>
+          <t>-20,6; -9,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 20,77</t>
+          <t>-7,99; 7,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 31,87</t>
+          <t>6,35; 29,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,64; 55,24</t>
+          <t>11,08; 35,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>23,91; 69,69</t>
+          <t>47,1; 140,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 18,09</t>
+          <t>-5,88; 6,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,62; 31,22</t>
+          <t>-1,03; 10,69</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,67; 39,38</t>
+          <t>22,57; 62,88</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-10,54</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-8,21</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,44</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>5,55</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>16,06</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>11,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-13,98; -7,08</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; -4,76</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 5,86</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 6,94</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 8,19</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>12,0; 25,65</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-2,15; 2,12</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 3,74</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>8,78; 16,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-19,32%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-15,04%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>18,0%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>22,51%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>65,17%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-0,11%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>31,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-24,68; -13,44</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-20,6; -9,21</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 11,04</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>6,35; 29,67</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>11,08; 35,38</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>47,42; 105,59</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-5,88; 6,18</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 10,69</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>24,33; 45,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P62-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P62-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 0,81</t>
+          <t>-14,07; 0,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -3,86</t>
+          <t>-20,05; -4,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 12,46</t>
+          <t>-5,76; 11,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 13,07</t>
+          <t>2,2; 13,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 11,25</t>
+          <t>0,35; 11,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 22,42</t>
+          <t>12,6; 21,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 8,73</t>
+          <t>-0,39; 9,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,24</t>
+          <t>-3,46; 5,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 17,98</t>
+          <t>8,74; 17,56</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 1,61</t>
+          <t>-23,62; 2,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,53; -7,19</t>
+          <t>-32,08; -8,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 24,58</t>
+          <t>-9,71; 21,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,25; 63,45</t>
+          <t>8,1; 60,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 53,52</t>
+          <t>1,29; 53,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,41; 106,61</t>
+          <t>46,21; 103,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 26,48</t>
+          <t>-1,16; 27,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 15,73</t>
+          <t>-9,04; 16,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,62; 53,2</t>
+          <t>22,56; 52,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,24; -8,06</t>
+          <t>-22,12; -9,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,5; -5,75</t>
+          <t>-19,02; -5,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 3,44</t>
+          <t>-12,23; 3,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 10,29</t>
+          <t>1,69; 10,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 9,6</t>
+          <t>0,48; 9,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 16,75</t>
+          <t>6,74; 15,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,39</t>
+          <t>-4,44; 3,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 3,73</t>
+          <t>-3,89; 4,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 10,6</t>
+          <t>2,55; 10,94</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,97; -15,84</t>
+          <t>-36,65; -17,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,38; -11,33</t>
+          <t>-31,43; -11,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 6,53</t>
+          <t>-20,7; 6,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 53,25</t>
+          <t>5,96; 52,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 49,14</t>
+          <t>1,65; 48,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,56; 88,67</t>
+          <t>26,7; 82,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 10,28</t>
+          <t>-12,4; 10,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 11,33</t>
+          <t>-10,64; 13,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 32,5</t>
+          <t>6,89; 33,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,7; -11,39</t>
+          <t>-26,1; -11,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,84; -3,03</t>
+          <t>-19,31; -3,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 10,12</t>
+          <t>-8,48; 10,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 6,88</t>
+          <t>-5,12; 6,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 7,36</t>
+          <t>-4,4; 7,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 57,26</t>
+          <t>8,12; 56,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,54; -1,18</t>
+          <t>-10,4; -0,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 3,07</t>
+          <t>-6,45; 3,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,01; 39,44</t>
+          <t>7,08; 40,2</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,89; -21,0</t>
+          <t>-42,98; -20,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,39; -5,41</t>
+          <t>-30,67; -6,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 18,48</t>
+          <t>-13,95; 18,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 30,6</t>
+          <t>-17,69; 25,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 32,33</t>
+          <t>-15,74; 32,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,07; 265,72</t>
+          <t>30,29; 258,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,12; -3,2</t>
+          <t>-25,9; -1,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 8,61</t>
+          <t>-16,27; 9,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,29; 113,39</t>
+          <t>18,37; 114,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 4,57</t>
+          <t>-9,02; 5,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 7,47</t>
+          <t>-5,95; 7,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 7,85</t>
+          <t>-7,51; 6,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,81</t>
+          <t>-1,74; 7,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 13,46</t>
+          <t>3,29; 13,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 16,52</t>
+          <t>6,76; 16,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 6,13</t>
+          <t>-2,25; 5,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 10,54</t>
+          <t>2,12; 10,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,89; 12,25</t>
+          <t>3,7; 12,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 9,94</t>
+          <t>-16,73; 11,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 16,8</t>
+          <t>-11,21; 16,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 17,02</t>
+          <t>-14,33; 14,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 31,87</t>
+          <t>-5,92; 32,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,64; 55,24</t>
+          <t>10,76; 56,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>22,95; 68,22</t>
+          <t>22,81; 66,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 18,09</t>
+          <t>-5,88; 17,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,62; 31,22</t>
+          <t>5,66; 31,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,31; 36,46</t>
+          <t>9,89; 36,32</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,98; -7,08</t>
+          <t>-14,1; -6,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,52; -4,76</t>
+          <t>-11,59; -4,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,81</t>
+          <t>-4,57; 3,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,94</t>
+          <t>1,83; 6,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,19</t>
+          <t>2,81; 8,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,8; 34,12</t>
+          <t>11,97; 36,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,12</t>
+          <t>-2,08; 2,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,74</t>
+          <t>-0,31; 4,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,17; 22,7</t>
+          <t>8,14; 23,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,68; -13,44</t>
+          <t>-25,03; -13,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,6; -9,21</t>
+          <t>-20,64; -9,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 7,26</t>
+          <t>-8,0; 6,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,35; 29,67</t>
+          <t>7,01; 29,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>11,08; 35,38</t>
+          <t>10,56; 34,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>47,1; 140,93</t>
+          <t>47,7; 142,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 6,18</t>
+          <t>-5,61; 6,69</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 10,69</t>
+          <t>-0,83; 11,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>22,57; 62,88</t>
+          <t>22,51; 65,35</t>
         </is>
       </c>
     </row>
